--- a/to-do-list-e-kaly.xlsx
+++ b/to-do-list-e-kaly.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -261,20 +261,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -552,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,12 +642,11 @@
         <v>75</v>
       </c>
       <c r="F6">
-        <f>D6-E6</f>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -757,55 +749,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6">
+        <f>25*4</f>
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6">
+        <f>25</f>
+        <v>25</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,15 +813,16 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <f>25*1</f>
+        <v>25</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1901,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <f>D56-E56</f>
+        <f t="shared" ref="F56:F62" si="9">D56-E56</f>
         <v>40</v>
       </c>
       <c r="G56" s="2">
@@ -1926,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <f>D57-E57</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="G57" s="2">
@@ -1951,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <f>D58-E58</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="G58" s="2">
@@ -1976,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <f>D59-E59</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="G59" s="2">
@@ -2001,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <f>D60-E60</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="G60" s="2">
@@ -2026,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <f>D61-E61</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="G61" s="2">
@@ -2051,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <f>D62-E62</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="G62" s="2">
@@ -2086,15 +2078,15 @@
       </c>
       <c r="E65" s="4">
         <f>SUM(E5:E64)/60</f>
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="F65" s="4">
         <f>SUM(F5:F64)/60</f>
-        <v>26.333333333333332</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="G65" s="5">
         <f>E65/(E65+F65)</f>
-        <v>9.4555873925501438E-2</v>
+        <v>0.17166212534059946</v>
       </c>
     </row>
   </sheetData>
